--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8532B2-9123-0B4C-A076-8EF3C8EC8619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D058A8-DBFD-C648-8762-3FCABFD3A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>Age</t>
   </si>
@@ -495,13 +495,7 @@
     <t>alaglu {alanine-[13C3,15N1][14];glucose-[13C6][20]}</t>
   </si>
   <si>
-    <t>Study ID</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>obf</t>
   </si>
   <si>
     <t>ob/ob and wildtype littermates were fasted 7 hours and infused with tracers</t>
@@ -1192,47 +1186,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AD9441-61D3-6D4C-BF71-BBB9AE1C084E}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>34</v>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1261,42 +1248,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="20">
         <v>36526</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1321,24 +1308,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1365,22 +1352,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -1392,13 +1379,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1422,13 +1409,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5406,7 +5393,7 @@
         <v>44154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>18</v>
@@ -10639,19 +10626,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -10668,10 +10655,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="14">
         <v>20</v>
@@ -10685,10 +10672,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="14">
         <v>14</v>
@@ -10722,25 +10709,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -10751,10 +10738,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="14">
         <v>13</v>
@@ -10763,7 +10750,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -10771,10 +10758,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="14">
         <v>13</v>
@@ -10783,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -10791,10 +10778,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="14">
         <v>15</v>
@@ -10803,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -10834,16 +10821,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -10856,30 +10843,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -10904,13 +10891,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>20</v>
@@ -10918,16 +10905,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14">
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D058A8-DBFD-C648-8762-3FCABFD3A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A54D2-5990-174B-A9E5-D39288456955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="9" r:id="rId9"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
+    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="11" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="12" r:id="rId12"/>
     <sheet name="Defaults" sheetId="13" r:id="rId13"/>
@@ -522,9 +522,6 @@
     <t>glucose-[13C6]</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>Polar HILIC is the way to go!</t>
   </si>
   <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
     <t>Operator</t>
   </si>
   <si>
@@ -628,9 +622,6 @@
   </si>
   <si>
     <t>File Format</t>
-  </si>
-  <si>
-    <t>Default Sequence Name</t>
   </si>
   <si>
     <t>isocorr</t>
@@ -673,6 +664,15 @@
   </si>
   <si>
     <t>Infusate Row Group</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AD9441-61D3-6D4C-BF71-BBB9AE1C084E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1248,42 +1248,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="20">
         <v>36526</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C311A5-37D3-EC42-964B-1F06C94286F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1308,24 +1310,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9072829C-D118-B24B-B49F-A037A59AEB40}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1352,22 +1356,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -1379,13 +1383,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1409,13 +1413,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +5397,7 @@
         <v>44154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>18</v>
@@ -10626,7 +10630,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>33</v>
@@ -10693,7 +10697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295AAE7F-6F13-2E4E-BF80-D85D286842A4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10709,22 +10715,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>35</v>
@@ -10738,10 +10744,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14">
         <v>13</v>
@@ -10758,10 +10764,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="14">
         <v>13</v>
@@ -10778,10 +10784,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14">
         <v>15</v>
@@ -10821,16 +10827,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -10843,30 +10849,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10894,10 +10900,10 @@
         <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>20</v>
@@ -10905,16 +10911,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="C2" s="14">
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A54D2-5990-174B-A9E5-D39288456955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A642C34-0AA9-5C49-A0B0-8FC948A1A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>Age</t>
   </si>
@@ -673,6 +673,9 @@
   </si>
   <si>
     <t>MS Run</t>
+  </si>
+  <si>
+    <t>Tracer</t>
   </si>
 </sst>
 </file>
@@ -10616,7 +10619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A071A6C0-1F50-2649-B578-4832509AE47D}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10636,7 +10641,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>36</v>
@@ -10697,7 +10702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295AAE7F-6F13-2E4E-BF80-D85D286842A4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A642C34-0AA9-5C49-A0B0-8FC948A1A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52865F-8EF6-7742-AD57-551629934443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="9" r:id="rId9"/>
-    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="11" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="12" r:id="rId12"/>
     <sheet name="Defaults" sheetId="13" r:id="rId13"/>
@@ -1404,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B082791-0BA6-B545-B4DC-16564849078B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10619,7 +10619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A071A6C0-1F50-2649-B578-4832509AE47D}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52865F-8EF6-7742-AD57-551629934443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9448217-9A07-0244-9EDC-4C9BBEA51185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -669,13 +669,13 @@
     <t>MS Run Name</t>
   </si>
   <si>
-    <t>Default MS Run</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
     <t>Tracer</t>
+  </si>
+  <si>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C311A5-37D3-EC42-964B-1F06C94286F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1319,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1371,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>80</v>
@@ -1404,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B082791-0BA6-B545-B4DC-16564849078B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10641,7 +10641,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>36</v>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9448217-9A07-0244-9EDC-4C9BBEA51185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6A3DE-9A68-E04A-962B-A3DE85F4B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -666,9 +666,6 @@
     <t>Infusate Row Group</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7D6F2-968F-8744-AAE8-E219764E3D75}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1251,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>63</v>
@@ -1299,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C311A5-37D3-EC42-964B-1F06C94286F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1319,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1371,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>80</v>
@@ -10641,7 +10641,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>36</v>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6A3DE-9A68-E04A-962B-A3DE85F4B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866121C3-1A9A-5B4D-87D0-B94BCDEF5A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -666,9 +666,6 @@
     <t>Infusate Row Group</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7D6F2-968F-8744-AAE8-E219764E3D75}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1251,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>63</v>
@@ -1319,7 +1319,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9072829C-D118-B24B-B49F-A037A59AEB40}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>80</v>
@@ -10641,7 +10641,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>36</v>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study_missing_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866121C3-1A9A-5B4D-87D0-B94BCDEF5A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EDFD0-031E-A648-9B89-089CC177EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2400" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -27,8 +27,19 @@
     <sheet name="Peak Annotation Details" sheetId="12" r:id="rId12"/>
     <sheet name="Defaults" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -1343,9 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9072829C-D118-B24B-B49F-A037A59AEB40}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
